--- a/HuongdanlamProject.xlsx
+++ b/HuongdanlamProject.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenduclong/Documents/GitHub/BaoCaoXayDungPhatTrienPM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Documents\GitHub\BaoCaoXayDungPhatTrienPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{823E2D5D-DB76-9242-8098-48478CAEDF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A5A07A-6733-436E-9891-9EA05B2D98E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="2120" windowWidth="23260" windowHeight="12460" xr2:uid="{3D6E4A91-41E7-4E04-A93F-42730CC8FB2F}"/>
+    <workbookView xWindow="1455" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{3D6E4A91-41E7-4E04-A93F-42730CC8FB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hướng dẫn làm project" sheetId="1" r:id="rId1"/>
@@ -681,13 +681,13 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>88900</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1180042</xdr:colOff>
+          <xdr:colOff>1181100</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>584200</xdr:rowOff>
+          <xdr:rowOff>581025</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -734,15 +734,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1003300</xdr:colOff>
+          <xdr:colOff>1000125</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>2501900</xdr:colOff>
+          <xdr:colOff>2505075</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>558800</xdr:rowOff>
+          <xdr:rowOff>561975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -789,13 +789,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>723900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>927100</xdr:colOff>
+          <xdr:colOff>923925</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>1409700</xdr:rowOff>
         </xdr:to>
@@ -1196,23 +1196,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF6F10C-FDCA-4815-B755-710EBF7BA8C0}">
   <dimension ref="A2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="43" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -1223,7 +1223,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="150" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1370,13 +1370,13 @@
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>88900</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>1181100</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>584200</xdr:rowOff>
+                <xdr:rowOff>581025</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1393,15 +1393,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>1003300</xdr:colOff>
+                <xdr:colOff>1000125</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>50800</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>2501900</xdr:colOff>
+                <xdr:colOff>2505075</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>558800</xdr:rowOff>
+                <xdr:rowOff>561975</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1418,13 +1418,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>12700</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>723900</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>927100</xdr:colOff>
+                <xdr:colOff>923925</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>1409700</xdr:rowOff>
               </to>
@@ -1461,7 +1461,6 @@
         <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <oleObject progId="Presentation" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId12"/>
   </oleObjects>
 </worksheet>
 </file>
@@ -1474,14 +1473,14 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="55" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>33</v>
       </c>
@@ -1497,7 +1496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>37</v>
       </c>
@@ -1513,7 +1512,7 @@
       </c>
       <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="23">
         <v>45718</v>
       </c>
@@ -1529,7 +1528,7 @@
       </c>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="24"/>
       <c r="C5" s="26">
         <v>4</v>
@@ -1543,7 +1542,7 @@
       </c>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="24"/>
       <c r="C6" s="26">
         <v>5</v>
@@ -1557,7 +1556,7 @@
       </c>
       <c r="G6" s="30"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="25"/>
       <c r="C7" s="26">
         <v>6</v>
@@ -1569,7 +1568,7 @@
       <c r="F7" s="28"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>47</v>
       </c>
@@ -1581,7 +1580,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="30"/>
     </row>
-    <row r="9" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>49</v>
       </c>
@@ -1597,7 +1596,7 @@
       </c>
       <c r="G9" s="30"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="23">
         <v>45725</v>
       </c>
@@ -1613,7 +1612,7 @@
       </c>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="24"/>
       <c r="C11" s="26">
         <v>9</v>
@@ -1627,7 +1626,7 @@
       </c>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="24"/>
       <c r="C12" s="26">
         <v>10</v>
@@ -1641,7 +1640,7 @@
       </c>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
       <c r="C13" s="26">
         <v>11</v>
@@ -1653,7 +1652,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>55</v>
       </c>
@@ -1665,7 +1664,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>56</v>
       </c>
@@ -1681,7 +1680,7 @@
       </c>
       <c r="G15" s="30"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="23">
         <v>45732</v>
       </c>
@@ -1697,7 +1696,7 @@
       </c>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="24"/>
       <c r="C17" s="26">
         <v>14</v>
@@ -1711,7 +1710,7 @@
       </c>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="24"/>
       <c r="C18" s="26">
         <v>15</v>
@@ -1725,7 +1724,7 @@
       </c>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
       <c r="C19" s="26">
         <v>16</v>
@@ -1737,7 +1736,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>62</v>
       </c>
@@ -1749,7 +1748,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>63</v>
       </c>
@@ -1765,7 +1764,7 @@
       </c>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="23">
         <v>45739</v>
       </c>
@@ -1781,7 +1780,7 @@
       </c>
       <c r="G22" s="27"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="24"/>
       <c r="C23" s="26">
         <v>19</v>
@@ -1795,7 +1794,7 @@
       </c>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="24"/>
       <c r="C24" s="26">
         <v>19</v>
@@ -1809,7 +1808,7 @@
       </c>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="25"/>
       <c r="C25" s="26">
         <v>20</v>
@@ -1837,15 +1836,15 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="54.5" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="54.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>33</v>
       </c>
@@ -1861,7 +1860,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
         <v>69</v>
       </c>
@@ -1877,7 +1876,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="36"/>
       <c r="C4" s="12">
         <v>3</v>
@@ -1891,7 +1890,7 @@
       </c>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="36"/>
       <c r="C5" s="12">
         <v>4</v>
@@ -1905,7 +1904,7 @@
       </c>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="36"/>
       <c r="C6" s="12">
         <v>5</v>
@@ -1919,7 +1918,7 @@
       </c>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="36"/>
       <c r="C7" s="12">
         <v>6</v>
@@ -1933,7 +1932,7 @@
       </c>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>55</v>
       </c>
@@ -1945,7 +1944,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="36" t="s">
         <v>75</v>
       </c>
@@ -1961,7 +1960,7 @@
       </c>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="36"/>
       <c r="C10" s="12">
         <v>8</v>
@@ -1975,7 +1974,7 @@
       </c>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="36"/>
       <c r="C11" s="12">
         <v>9</v>
@@ -1989,7 +1988,7 @@
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="36"/>
       <c r="C12" s="12">
         <v>10</v>
@@ -2003,7 +2002,7 @@
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="36"/>
       <c r="C13" s="12">
         <v>11</v>
@@ -2017,7 +2016,7 @@
       </c>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>62</v>
       </c>
@@ -2029,7 +2028,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
         <v>76</v>
       </c>
@@ -2045,7 +2044,7 @@
       </c>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="36"/>
       <c r="C16" s="12">
         <v>13</v>
@@ -2059,7 +2058,7 @@
       </c>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="36"/>
       <c r="C17" s="12">
         <v>14</v>
@@ -2073,7 +2072,7 @@
       </c>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="36"/>
       <c r="C18" s="12">
         <v>15</v>
@@ -2087,7 +2086,7 @@
       </c>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="36"/>
       <c r="C19" s="12">
         <v>16</v>
@@ -2101,7 +2100,7 @@
       </c>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>62</v>
       </c>
@@ -2113,7 +2112,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="36" t="s">
         <v>77</v>
       </c>
@@ -2129,7 +2128,7 @@
       </c>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="36"/>
       <c r="C22" s="12">
         <v>18</v>
@@ -2143,7 +2142,7 @@
       </c>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="36"/>
       <c r="C23" s="12">
         <v>19</v>
@@ -2157,7 +2156,7 @@
       </c>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="36"/>
       <c r="C24" s="12">
         <v>19</v>
@@ -2171,7 +2170,7 @@
       </c>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="36"/>
       <c r="C25" s="12">
         <v>20</v>
@@ -2199,21 +2198,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100962A8518DDFDA64BA170829B8E3CAA15" ma:contentTypeVersion="4" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="2299c8493e86e4041fdd2db91cc6c7d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="10910068-c2e0-4c09-9eec-e2e117851a6e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c9879b1db719e0163eb9049ea9d98d48" ns2:_="">
     <xsd:import namespace="10910068-c2e0-4c09-9eec-e2e117851a6e"/>
@@ -2357,24 +2341,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65DF8944-E5BC-4217-B6FF-D77C7A522284}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0783461-86FC-4952-8B8A-DAAF76219FBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2F951C1-69CC-4899-9B8C-135B54F9A9F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2390,4 +2372,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0783461-86FC-4952-8B8A-DAAF76219FBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65DF8944-E5BC-4217-B6FF-D77C7A522284}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>